--- a/Data/Predictions/Graph Neural Network/Inductive/reformatted_exclude_previous_rating_model_3_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Inductive/reformatted_exclude_previous_rating_model_3_predictions.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
